--- a/RPAFinalProject/Data/Output/Output_Companii.xlsx
+++ b/RPAFinalProject/Data/Output/Output_Companii.xlsx
@@ -70,7 +70,7 @@
     <x:t>Departament</x:t>
   </x:si>
   <x:si>
-    <x:t>Subdepartmanent</x:t>
+    <x:t>Subdepartament</x:t>
   </x:si>
   <x:si>
     <x:t>TARIFAR INCADRARE</x:t>

--- a/RPAFinalProject/Data/Output/Output_Companii.xlsx
+++ b/RPAFinalProject/Data/Output/Output_Companii.xlsx
@@ -13813,7 +13813,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AH2"/>
+  <x:dimension ref="A1:AH23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
